--- a/plantillasSap/15122022/9686-15122022.xlsx
+++ b/plantillasSap/15122022/9686-15122022.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UNION" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="UNION" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UNION'!$A$16:$E$64</definedName>
@@ -722,10 +722,10 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="24" t="n">
-        <v>791281.29</v>
+        <v>792471.29</v>
       </c>
       <c r="B9" s="24" t="n">
-        <v>792471.29</v>
+        <v>1059471.29</v>
       </c>
       <c r="C9" s="18" t="n"/>
       <c r="D9" s="20" t="n"/>
@@ -839,17 +839,17 @@
     <row r="17" ht="17.25" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14549-532749</t>
+          <t>7262-330842</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-CREDITO ACH - VALOR CREDITO-Originador ACH</t>
+          <t>POMA LIMACHI LUISA REINA-DEPOSITOS-VALOR EFECTIVO-Originador ACH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1130</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="14" t="n"/>
     </row>
     <row r="18" ht="17.25" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6940-2992084</t>
+          <t>6943-598512</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -884,43 +884,112 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>54000</v>
+        <v>100000</v>
       </c>
       <c r="F18" s="14" t="n"/>
     </row>
     <row r="19" ht="17.25" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>14/12/2022</t>
+          <t>15/12/2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14571-64638</t>
+          <t>6945-561429</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-DEBITO ACH - VALOR DEBITO-Originador ACH</t>
+          <t>-CREDITO ACH - VALOR CREDITO-Originador ACH</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Z001</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>128000</v>
+      </c>
+      <c r="F19" s="14" t="n"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14551-532756</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-CREDITO ACH - VALOR CREDITO-Originador ACH</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Z001</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>112000</v>
+      </c>
+      <c r="F20" s="14" t="n"/>
+    </row>
+    <row r="21" ht="17.25" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14547-542185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-CREDITO ACH - VALOR CREDITO-Originador ACH</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Z001</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>26000</v>
+      </c>
+      <c r="F21" s="14" t="n"/>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>15/12/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2452-2637890</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-ND TRASPASO DE FONDOS-Originador ACH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Z002</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>-53940</v>
-      </c>
-      <c r="F19" s="14" t="n"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="F20" s="14" t="n"/>
-    </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="F21" s="14" t="n"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1">
+      <c r="E22" t="n">
+        <v>-100000</v>
+      </c>
       <c r="F22" s="14" t="n"/>
     </row>
     <row r="23" ht="17.25" customHeight="1">
